--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>3.456939005865555</v>
+        <v>1.056398526458333</v>
       </c>
       <c r="R2">
-        <v>31.11245105278999</v>
+        <v>9.507586738124999</v>
       </c>
       <c r="S2">
-        <v>0.004208794396788297</v>
+        <v>0.001047194641169447</v>
       </c>
       <c r="T2">
-        <v>0.004208794396788295</v>
+        <v>0.001047194641169447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>10.43830302353667</v>
+        <v>7.602523596121666</v>
       </c>
       <c r="R3">
-        <v>93.94472721182997</v>
+        <v>68.42271236509499</v>
       </c>
       <c r="S3">
-        <v>0.01270854683952964</v>
+        <v>0.007536286514819272</v>
       </c>
       <c r="T3">
-        <v>0.01270854683952964</v>
+        <v>0.00753628651481927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>19.97339926812777</v>
+        <v>20.452357957985</v>
       </c>
       <c r="R4">
-        <v>179.76059341315</v>
+        <v>184.071221621865</v>
       </c>
       <c r="S4">
-        <v>0.02431744696156811</v>
+        <v>0.02027416653512907</v>
       </c>
       <c r="T4">
-        <v>0.02431744696156811</v>
+        <v>0.02027416653512906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>25.47364848106111</v>
+        <v>22.47335605642333</v>
       </c>
       <c r="R5">
-        <v>229.26283632955</v>
+        <v>202.26020450781</v>
       </c>
       <c r="S5">
-        <v>0.03101395448717221</v>
+        <v>0.02227755666252124</v>
       </c>
       <c r="T5">
-        <v>0.03101395448717221</v>
+        <v>0.02227755666252123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>35.28264014216823</v>
+        <v>14.80366567808333</v>
       </c>
       <c r="R6">
-        <v>317.543761279514</v>
+        <v>133.23299110275</v>
       </c>
       <c r="S6">
-        <v>0.04295631999358183</v>
+        <v>0.01467468855690834</v>
       </c>
       <c r="T6">
-        <v>0.04295631999358181</v>
+        <v>0.01467468855690834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
         <v>106.5367044803087</v>
       </c>
       <c r="R7">
-        <v>958.8303403227779</v>
+        <v>958.8303403227781</v>
       </c>
       <c r="S7">
-        <v>0.1297075488194055</v>
+        <v>0.1056085021186677</v>
       </c>
       <c r="T7">
-        <v>0.1297075488194055</v>
+        <v>0.1056085021186677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>203.8549877789211</v>
+        <v>286.605728761814</v>
       </c>
       <c r="R8">
-        <v>1834.69489001029</v>
+        <v>2579.451558856326</v>
       </c>
       <c r="S8">
-        <v>0.2481917467636795</v>
+        <v>0.28410867278853</v>
       </c>
       <c r="T8">
-        <v>0.2481917467636794</v>
+        <v>0.2841086727885299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>259.9923142816144</v>
+        <v>314.9266506828494</v>
       </c>
       <c r="R9">
-        <v>2339.93082853453</v>
+        <v>2834.339856145644</v>
       </c>
       <c r="S9">
-        <v>0.3165384734008343</v>
+        <v>0.3121828483254042</v>
       </c>
       <c r="T9">
-        <v>0.3165384734008342</v>
+        <v>0.3121828483254042</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N10">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O10">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P10">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q10">
-        <v>7.788049486900333</v>
+        <v>3.705303480958333</v>
       </c>
       <c r="R10">
-        <v>70.09244538210299</v>
+        <v>33.347731328625</v>
       </c>
       <c r="S10">
-        <v>0.009481885270975151</v>
+        <v>0.003673020978337297</v>
       </c>
       <c r="T10">
-        <v>0.009481885270975149</v>
+        <v>0.003673020978337297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q11">
-        <v>23.516185957759</v>
+        <v>26.66574823728567</v>
       </c>
       <c r="R11">
-        <v>211.645673619831</v>
+        <v>239.991734135571</v>
       </c>
       <c r="S11">
-        <v>0.02863076019707388</v>
+        <v>0.02643342257441192</v>
       </c>
       <c r="T11">
-        <v>0.02863076019707388</v>
+        <v>0.02643342257441192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N12">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q12">
-        <v>44.99756045966166</v>
+        <v>71.73636770357301</v>
       </c>
       <c r="R12">
-        <v>404.978044136955</v>
+        <v>645.627309332157</v>
       </c>
       <c r="S12">
-        <v>0.05478415442402285</v>
+        <v>0.0711113637085385</v>
       </c>
       <c r="T12">
-        <v>0.05478415442402285</v>
+        <v>0.0711113637085385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N13">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q13">
-        <v>57.38893126138166</v>
+        <v>78.82499107969534</v>
       </c>
       <c r="R13">
-        <v>516.5003813524349</v>
+        <v>709.4249197172579</v>
       </c>
       <c r="S13">
-        <v>0.06987054498813612</v>
+        <v>0.07813822736541105</v>
       </c>
       <c r="T13">
-        <v>0.06987054498813612</v>
+        <v>0.07813822736541105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N14">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O14">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P14">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q14">
-        <v>1.320110680541667</v>
+        <v>1.093560734</v>
       </c>
       <c r="R14">
-        <v>11.880996124875</v>
+        <v>9.842046605999998</v>
       </c>
       <c r="S14">
-        <v>0.001607223739260916</v>
+        <v>0.001084033072516119</v>
       </c>
       <c r="T14">
-        <v>0.001607223739260916</v>
+        <v>0.001084033072516119</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q15">
-        <v>3.986103105875</v>
+        <v>7.869966755728</v>
       </c>
       <c r="R15">
-        <v>35.874927952875</v>
+        <v>70.82970080155199</v>
       </c>
       <c r="S15">
-        <v>0.004853047273487124</v>
+        <v>0.007801399572574207</v>
       </c>
       <c r="T15">
-        <v>0.004853047273487124</v>
+        <v>0.007801399572574206</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N16">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q16">
-        <v>7.627296187708334</v>
+        <v>21.171835268976</v>
       </c>
       <c r="R16">
-        <v>68.64566568937501</v>
+        <v>190.546517420784</v>
       </c>
       <c r="S16">
-        <v>0.009286169470448575</v>
+        <v>0.02098737539110762</v>
       </c>
       <c r="T16">
-        <v>0.009286169470448575</v>
+        <v>0.02098737539110761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N17">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q17">
-        <v>9.727691282708333</v>
+        <v>23.263928459744</v>
       </c>
       <c r="R17">
-        <v>87.549221544375</v>
+        <v>209.375356137696</v>
       </c>
       <c r="S17">
-        <v>0.01184338297403604</v>
+        <v>0.02306124119395409</v>
       </c>
       <c r="T17">
-        <v>0.01184338297403604</v>
+        <v>0.02306124119395408</v>
       </c>
     </row>
   </sheetData>
